--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
   <si>
     <t>模块</t>
   </si>
@@ -355,16 +355,28 @@
     <t>查看全局的插件配置</t>
   </si>
   <si>
-    <t>全部重签</t>
-  </si>
-  <si>
-    <t>强制执行签到任务</t>
-  </si>
-  <si>
-    <t>全部重获取</t>
-  </si>
-  <si>
-    <t>强制执行米游币获取</t>
+    <t>全部重签/重获取</t>
+  </si>
+  <si>
+    <t>全部签到/米游币获取</t>
+  </si>
+  <si>
+    <t>全部重签、全部重获取</t>
+  </si>
+  <si>
+    <t>gs更新</t>
+  </si>
+  <si>
+    <t>可尝试gs强制更新</t>
+  </si>
+  <si>
+    <t>gs强行强制更新</t>
+  </si>
+  <si>
+    <t>gs重启</t>
+  </si>
+  <si>
+    <t>重启你的Bot</t>
   </si>
   <si>
     <t>杂图 | 可能会用得上</t>
@@ -401,41 +413,41 @@
   <numFmts count="38">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="182" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="183" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="yy/m/d"/>
+    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="187" formatCode="m/d"/>
+    <numFmt numFmtId="188" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="190" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="192" formatCode="mmmmm"/>
+    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="194" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="195" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="196" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="197" formatCode="#\ ??"/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="186" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="188" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="189" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="191" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="192" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="193" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="194" formatCode="mmmmm"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="195" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="196" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="197" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="198" formatCode="#\ ??"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="200" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="201" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="199" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="201" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -473,11 +485,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,22 +508,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -519,9 +515,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,47 +547,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,6 +569,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -602,9 +615,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,181 +643,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +835,72 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,41 +920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -886,183 +928,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,7 +1416,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -2227,13 +2239,13 @@
         <v>114</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>11</v>
@@ -2241,13 +2253,13 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
@@ -2259,38 +2271,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="5" t="s">
+    <row r="46" spans="2:7">
+      <c r="B46" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
+      <c r="D46" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="B48" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>12</v>
@@ -2304,13 +2316,13 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
@@ -2323,15 +2335,26 @@
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2339,7 +2362,8 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="1:7">
+      <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2362,6 +2386,14 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
   <si>
     <t>模块</t>
   </si>
@@ -157,6 +157,12 @@
     <t>便签</t>
   </si>
   <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>进行一次米游社签到</t>
+  </si>
+  <si>
     <t>当前状态</t>
   </si>
   <si>
@@ -169,6 +175,15 @@
     <t>每月的原石获取情况</t>
   </si>
   <si>
+    <t>札记/yszj</t>
+  </si>
+  <si>
+    <t>原石获取状态图片版</t>
+  </si>
+  <si>
+    <t>当前信息</t>
+  </si>
+  <si>
     <t>面板服务 | 数据源由Enka提供</t>
   </si>
   <si>
@@ -254,6 +269,18 @@
   </si>
   <si>
     <t>任务须弥</t>
+  </si>
+  <si>
+    <t>抽表情</t>
+  </si>
+  <si>
+    <t>随机抽一个表情</t>
+  </si>
+  <si>
+    <t>御神签</t>
+  </si>
+  <si>
+    <t>随机抽一签,当天内签文固定</t>
   </si>
   <si>
     <t>WIKI | 获取游戏信息</t>
@@ -412,43 +439,43 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="184" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="185" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="186" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="187" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="190" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="mmmmm"/>
+    <numFmt numFmtId="194" formatCode="yy/m/d"/>
+    <numFmt numFmtId="195" formatCode="#\ ??"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;\¥\-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="182" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="183" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="188" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="190" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="192" formatCode="mmmmm"/>
-    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="194" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="195" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="196" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="197" formatCode="#\ ??"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="199" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="201" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="198" formatCode="m/d"/>
+    <numFmt numFmtId="199" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="200" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="201" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -479,21 +506,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -508,6 +520,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -515,9 +550,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,47 +620,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -592,17 +635,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,13 +648,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -637,13 +664,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,13 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,78 +796,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -769,55 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,6 +855,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -851,41 +887,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,6 +923,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -933,148 +960,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,7 +1443,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1768,21 +1795,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4" t="s">
+    <row r="18" spans="2:7">
+      <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>12</v>
@@ -1791,35 +1835,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>12</v>
@@ -1839,7 +1866,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>12</v>
@@ -1851,15 +1878,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
-        <v>62</v>
-      </c>
+    <row r="23" spans="2:7">
+      <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>65</v>
@@ -1874,35 +1918,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="5" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
@@ -1916,13 +1943,13 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>12</v>
@@ -1936,13 +1963,13 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>12</v>
@@ -1975,25 +2002,34 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="C30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>12</v>
@@ -2007,13 +2043,13 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>12</v>
@@ -2033,47 +2069,38 @@
         <v>88</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -2087,13 +2114,13 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>12</v>
@@ -2107,13 +2134,13 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>12</v>
@@ -2122,15 +2149,15 @@
         <v>12</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>101</v>
@@ -2142,45 +2169,59 @@
         <v>12</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>106</v>
       </c>
+      <c r="D40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="E41" s="5" t="s">
         <v>12</v>
       </c>
@@ -2188,19 +2229,19 @@
         <v>12</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="E42" s="5" t="s">
         <v>12</v>
       </c>
@@ -2208,18 +2249,18 @@
         <v>12</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>12</v>
@@ -2231,27 +2272,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="5" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
       <c r="B45" s="5" t="s">
         <v>116</v>
       </c>
@@ -2259,7 +2286,7 @@
         <v>117</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
@@ -2268,33 +2295,50 @@
         <v>12</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="D47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="5" t="s">
         <v>122</v>
       </c>
@@ -2305,13 +2349,13 @@
         <v>124</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -2331,7 +2375,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -2351,41 +2395,71 @@
         <v>12</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="A52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="B53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="5"/>
@@ -2394,6 +2468,39 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="142">
   <si>
     <t>模块</t>
   </si>
@@ -175,7 +175,7 @@
     <t>每月的原石获取情况</t>
   </si>
   <si>
-    <t>札记/yszj</t>
+    <t>原石札记/zj</t>
   </si>
   <si>
     <t>原石获取状态图片版</t>
@@ -418,13 +418,22 @@
     <t>版本规划3.0</t>
   </si>
   <si>
-    <t>血量表、抗性表</t>
-  </si>
-  <si>
-    <t>所有怪物的血量和抗性</t>
+    <t>血量排行</t>
+  </si>
+  <si>
+    <t>常见怪物的血量排行</t>
   </si>
   <si>
     <t>血量表</t>
+  </si>
+  <si>
+    <t>所有怪物的血量</t>
+  </si>
+  <si>
+    <t>抗性表</t>
+  </si>
+  <si>
+    <t>所有怪物的抗性</t>
   </si>
   <si>
     <t>伤害乘区</t>
@@ -438,43 +447,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="182" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="183" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="187" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="188" formatCode="yy/m/d"/>
+    <numFmt numFmtId="189" formatCode="#\ ?/?"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="190" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="191" formatCode="mmmmm"/>
+    <numFmt numFmtId="192" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="194" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="195" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="183" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="184" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="185" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="186" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="190" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="193" formatCode="mmmmm"/>
-    <numFmt numFmtId="194" formatCode="yy/m/d"/>
-    <numFmt numFmtId="195" formatCode="#\ ??"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="198" formatCode="m/d"/>
-    <numFmt numFmtId="199" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="200" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="197" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="199" formatCode="#\ ??"/>
+    <numFmt numFmtId="200" formatCode="m/d"/>
     <numFmt numFmtId="201" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
   </numFmts>
   <fonts count="23">
@@ -506,7 +515,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,17 +552,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,14 +571,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,6 +591,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -582,9 +614,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,25 +637,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,20 +657,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -664,43 +673,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,13 +811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,73 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,43 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,8 +870,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,7 +880,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,6 +915,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -917,17 +935,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,9 +956,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,148 +969,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1443,7 +1452,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -2421,7 +2430,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="1:7">
+      <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
         <v>134</v>
       </c>
@@ -2429,7 +2439,7 @@
         <v>135</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>12</v>
@@ -2443,40 +2453,63 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="5"/>
@@ -2486,7 +2519,8 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="1:7">
+      <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2501,6 +2535,22 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="151">
   <si>
     <t>模块</t>
   </si>
@@ -205,6 +205,24 @@
     <t>查询100740568心海</t>
   </si>
   <si>
+    <t>查询xx换xx</t>
+  </si>
+  <si>
+    <t>查询角色面板更换武器</t>
+  </si>
+  <si>
+    <t>查询六命心海换护摩</t>
+  </si>
+  <si>
+    <t>查询xx成长曲线</t>
+  </si>
+  <si>
+    <t>输出当前角色成长表</t>
+  </si>
+  <si>
+    <t>查询刻晴曲线</t>
+  </si>
+  <si>
     <t>查询展柜角色</t>
   </si>
   <si>
@@ -376,19 +394,28 @@
     <t>校验全部sk的状态</t>
   </si>
   <si>
+    <t>清除无效用户</t>
+  </si>
+  <si>
+    <t>清理失效的用户</t>
+  </si>
+  <si>
     <t>gs配置</t>
   </si>
   <si>
     <t>查看全局的插件配置</t>
   </si>
   <si>
-    <t>全部重签/重获取</t>
-  </si>
-  <si>
-    <t>全部签到/米游币获取</t>
-  </si>
-  <si>
-    <t>全部重签、全部重获取</t>
+    <t>全部重签</t>
+  </si>
+  <si>
+    <t>重新进行全部签到</t>
+  </si>
+  <si>
+    <t>全部重获取</t>
+  </si>
+  <si>
+    <t>重新进行全部米游币获取</t>
   </si>
   <si>
     <t>gs更新</t>
@@ -447,44 +474,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="185" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="187" formatCode="yy/m/d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="182" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="183" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="187" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="188" formatCode="yy/m/d"/>
-    <numFmt numFmtId="189" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="190" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="191" formatCode="mmmmm"/>
-    <numFmt numFmtId="192" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="194" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="195" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="188" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="189" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="190" formatCode="mmmmm"/>
+    <numFmt numFmtId="191" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="194" formatCode="m/d"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="197" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
     <numFmt numFmtId="199" formatCode="#\ ??"/>
-    <numFmt numFmtId="200" formatCode="m/d"/>
-    <numFmt numFmtId="201" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="201" formatCode="mmmmm\-yy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -515,14 +542,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +565,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,8 +579,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -567,16 +602,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,48 +656,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,9 +670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,19 +700,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,19 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,37 +832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,37 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,55 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,20 +894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,6 +924,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -911,15 +944,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,17 +963,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,153 +982,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,9 +1479,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1895,7 +1922,7 @@
         <v>64</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>12</v>
@@ -1909,13 +1936,13 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>12</v>
@@ -1927,18 +1954,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>67</v>
-      </c>
+    <row r="25" spans="2:7">
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
@@ -1950,27 +1994,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="5" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
         <v>74</v>
       </c>
@@ -2018,7 +2045,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>12</v>
@@ -2032,13 +2059,13 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>12</v>
@@ -2052,13 +2079,13 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>12</v>
@@ -2072,13 +2099,13 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>12</v>
@@ -2091,25 +2118,34 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="B34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -2122,26 +2158,17 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
       <c r="B37" s="5" t="s">
         <v>96</v>
       </c>
@@ -2229,7 +2256,7 @@
         <v>109</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>12</v>
@@ -2238,18 +2265,18 @@
         <v>12</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>12</v>
@@ -2258,15 +2285,15 @@
         <v>12</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>114</v>
@@ -2278,24 +2305,38 @@
         <v>12</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
       <c r="B45" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
@@ -2307,35 +2348,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
+    <row r="46" spans="2:2">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="B47" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>12</v>
@@ -2349,33 +2376,33 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
@@ -2404,34 +2431,50 @@
         <v>12</v>
       </c>
       <c r="G50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="F51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="5" t="s">
         <v>134</v>
       </c>
@@ -2439,7 +2482,7 @@
         <v>135</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>12</v>
@@ -2448,19 +2491,19 @@
         <v>12</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="E54" s="5" t="s">
         <v>12</v>
       </c>
@@ -2468,30 +2511,13 @@
         <v>12</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
       <c r="B56" s="5" t="s">
         <v>140</v>
       </c>
@@ -2499,7 +2525,7 @@
         <v>141</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>12</v>
@@ -2511,38 +2537,86 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="5"/>
@@ -2551,6 +2625,39 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -280,6 +280,12 @@
     <t>游戏当前的活动列表</t>
   </si>
   <si>
+    <t>卡池列表</t>
+  </si>
+  <si>
+    <t>游戏当前的卡池列表</t>
+  </si>
+  <si>
     <t>任务xx</t>
   </si>
   <si>
@@ -356,12 +362,6 @@
   </si>
   <si>
     <t>语音可莉357</t>
-  </si>
-  <si>
-    <t>生成地图</t>
-  </si>
-  <si>
-    <t>初始化地图模块</t>
   </si>
   <si>
     <t>切换地图</t>
@@ -474,44 +474,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="m/d"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="187" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="188" formatCode="yy/m/d"/>
+    <numFmt numFmtId="189" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="190" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="191" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="192" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="197" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="198" formatCode="mmmmm"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="199" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="185" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="187" formatCode="yy/m/d"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="189" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="190" formatCode="mmmmm"/>
-    <numFmt numFmtId="191" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="193" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="194" formatCode="m/d"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="196" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="197" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="199" formatCode="#\ ??"/>
-    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="201" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="201" formatCode="#\ ??"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -550,7 +550,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,6 +558,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,13 +602,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -602,16 +618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,6 +633,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -634,37 +671,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,13 +684,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -700,37 +700,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,139 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,17 +894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,26 +948,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,6 +977,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -999,145 +999,145 @@
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,7 +1481,7 @@
   <sheetPr/>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2105,7 +2105,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>12</v>
@@ -2119,13 +2119,13 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>12</v>
@@ -2158,45 +2158,45 @@
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>12</v>
@@ -2210,13 +2210,13 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>12</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>12</v>
@@ -2250,13 +2250,13 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>12</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>12</v>
@@ -2290,14 +2290,14 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="E43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="2:7">

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="157">
   <si>
     <t>模块</t>
   </si>
@@ -205,6 +205,15 @@
     <t>查询100740568心海</t>
   </si>
   <si>
+    <t>查询x命xx</t>
+  </si>
+  <si>
+    <t>为自己的面板增加虚构数据</t>
+  </si>
+  <si>
+    <t>查询六命公子</t>
+  </si>
+  <si>
     <t>查询xx换xx</t>
   </si>
   <si>
@@ -212,6 +221,15 @@
   </si>
   <si>
     <t>查询六命心海换护摩</t>
+  </si>
+  <si>
+    <t>查询xx带xx换xx</t>
+  </si>
+  <si>
+    <t>查询不存在的角色</t>
+  </si>
+  <si>
+    <t>查询莱依拉带月光换公子</t>
   </si>
   <si>
     <t>查询xx成长曲线</t>
@@ -474,44 +492,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="179" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="yy/m/d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="186" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="187" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="m/d"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="183" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="189" formatCode="#\ ??"/>
+    <numFmt numFmtId="190" formatCode="m/d"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="193" formatCode="mmmmm"/>
+    <numFmt numFmtId="194" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="186" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="188" formatCode="yy/m/d"/>
-    <numFmt numFmtId="189" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="190" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="191" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="195" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="196" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="197" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="198" formatCode="mmmmm"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="201" formatCode="#\ ??"/>
+    <numFmt numFmtId="197" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="200" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="201" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -542,7 +560,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,8 +604,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,16 +635,46 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,11 +688,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,81 +702,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -706,181 +724,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,6 +909,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -924,15 +960,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -944,6 +971,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,171 +1009,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="196" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1479,7 +1497,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1962,7 +1980,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>12</v>
@@ -1976,13 +1994,13 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
@@ -1994,18 +2012,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4" t="s">
-        <v>73</v>
-      </c>
+    <row r="27" spans="2:7">
+      <c r="B27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>12</v>
@@ -2017,27 +2052,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="5" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
       <c r="B30" s="5" t="s">
         <v>80</v>
       </c>
@@ -2085,7 +2103,7 @@
         <v>87</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>12</v>
@@ -2099,13 +2117,13 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>12</v>
@@ -2119,10 +2137,10 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>92</v>
@@ -2139,13 +2157,13 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -2159,13 +2177,13 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>12</v>
@@ -2178,25 +2196,34 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="B37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>12</v>
@@ -2209,26 +2236,17 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
         <v>104</v>
       </c>
@@ -2316,7 +2334,7 @@
         <v>117</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>12</v>
@@ -2325,18 +2343,18 @@
         <v>12</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
@@ -2348,21 +2366,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="4" t="s">
-        <v>121</v>
-      </c>
+    <row r="46" spans="2:7">
+      <c r="B46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
       <c r="B47" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>12</v>
@@ -2374,35 +2406,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
+    <row r="48" spans="2:2">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="B49" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
@@ -2411,18 +2429,18 @@
         <v>12</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>12</v>
@@ -2436,16 +2454,16 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>12</v>
@@ -2456,36 +2474,36 @@
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>12</v>
@@ -2496,36 +2514,53 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="E54" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="4" t="s">
-        <v>139</v>
-      </c>
+    <row r="55" spans="2:7">
+      <c r="B55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>12</v>
@@ -2534,39 +2569,21 @@
         <v>12</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="B58" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>12</v>
@@ -2578,15 +2595,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="1:7">
+      <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>12</v>
@@ -2600,13 +2618,13 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>12</v>
@@ -2619,21 +2637,44 @@
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="B61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="5"/>
@@ -2643,7 +2684,8 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="1:7">
+      <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2658,6 +2700,22 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2671,6 +2729,7 @@
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
       <cellprotection/>
+      <appEtDbRelations/>
     </woSheetProps>
   </woSheetsProps>
   <woBookProps>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="168">
   <si>
     <t>模块</t>
   </si>
@@ -184,6 +184,15 @@
     <t>当前信息</t>
   </si>
   <si>
+    <t>七圣召唤/召唤</t>
+  </si>
+  <si>
+    <t>查询自己的七圣召唤进度</t>
+  </si>
+  <si>
+    <t>召唤100740568</t>
+  </si>
+  <si>
     <t>面板服务 | 数据源由Enka提供</t>
   </si>
   <si>
@@ -247,6 +256,15 @@
     <t>查询所有已缓存角色列表</t>
   </si>
   <si>
+    <t>查询队伍 xx</t>
+  </si>
+  <si>
+    <t>查询队伍伤害</t>
+  </si>
+  <si>
+    <t>查询队伍 万叶 公子 ...</t>
+  </si>
+  <si>
     <t>毕业度统计</t>
   </si>
   <si>
@@ -382,6 +400,15 @@
     <t>语音可莉357</t>
   </si>
   <si>
+    <t>原牌</t>
+  </si>
+  <si>
+    <t>查询原牌</t>
+  </si>
+  <si>
+    <t>原牌神里、原牌运筹帷幄</t>
+  </si>
+  <si>
     <t>切换地图</t>
   </si>
   <si>
@@ -485,6 +512,12 @@
   </si>
   <si>
     <t>伤害到底有几个乘区</t>
+  </si>
+  <si>
+    <t>深渊概览</t>
+  </si>
+  <si>
+    <t>从虚空数据库获取当期深渊完成率</t>
   </si>
 </sst>
 </file>
@@ -492,44 +525,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="185" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="186" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="187" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="188" formatCode="m/d"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="184" formatCode="yy/m/d"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="190" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="#\ ??"/>
+    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="198" formatCode="mmmmm"/>
+    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="200" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="201" formatCode="yy/m/d"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="186" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="187" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="189" formatCode="#\ ??"/>
-    <numFmt numFmtId="190" formatCode="m/d"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="193" formatCode="mmmmm"/>
-    <numFmt numFmtId="194" formatCode="mmmmm\-yy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="195" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="196" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="197" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="199" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="200" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="201" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -560,14 +593,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,16 +614,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,68 +678,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,17 +716,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -724,37 +757,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,43 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,91 +919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,8 +948,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,22 +958,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,6 +978,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -975,11 +1004,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,11 +1036,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,124 +1047,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,22 +1173,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1497,7 +1530,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1889,30 +1922,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="4" t="s">
+    <row r="20" spans="2:7">
+      <c r="B20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
       <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
@@ -2020,7 +2053,7 @@
         <v>76</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>12</v>
@@ -2034,14 +2067,14 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
@@ -2052,18 +2085,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="4" t="s">
-        <v>79</v>
-      </c>
+    <row r="29" spans="2:7">
+      <c r="B29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>12</v>
@@ -2075,27 +2125,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="5" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
         <v>86</v>
       </c>
@@ -2143,7 +2176,7 @@
         <v>93</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>12</v>
@@ -2157,13 +2190,13 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -2177,10 +2210,10 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>98</v>
@@ -2197,13 +2230,13 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>12</v>
@@ -2217,13 +2250,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>12</v>
@@ -2236,25 +2269,34 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="B39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>12</v>
@@ -2267,26 +2309,17 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
       <c r="B42" s="5" t="s">
         <v>110</v>
       </c>
@@ -2374,7 +2407,7 @@
         <v>123</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>12</v>
@@ -2383,18 +2416,18 @@
         <v>12</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>12</v>
@@ -2406,21 +2439,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="4" t="s">
-        <v>127</v>
-      </c>
+    <row r="48" spans="2:7">
+      <c r="B48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
       <c r="B49" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
@@ -2429,18 +2476,18 @@
         <v>12</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>12</v>
@@ -2452,35 +2499,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
+    <row r="51" spans="2:2">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="B52" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>12</v>
@@ -2494,39 +2527,39 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>11</v>
@@ -2534,13 +2567,13 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>12</v>
@@ -2549,21 +2582,21 @@
         <v>12</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>12</v>
@@ -2572,18 +2605,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4" t="s">
-        <v>145</v>
-      </c>
+    <row r="57" spans="2:7">
+      <c r="B57" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>12</v>
@@ -2592,19 +2642,18 @@
         <v>12</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>12</v>
@@ -2613,38 +2662,21 @@
         <v>12</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="B61" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>12</v>
@@ -2656,15 +2688,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="1:7">
+      <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>12</v>
@@ -2677,45 +2710,117 @@
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="2:7">
+      <c r="B66" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="182">
   <si>
     <t>模块</t>
   </si>
@@ -118,6 +118,18 @@
     <t>私聊直接发Json文件</t>
   </si>
   <si>
+    <t>扫码登陆</t>
+  </si>
+  <si>
+    <t>私聊扫码登陆，米游社扫码即可</t>
+  </si>
+  <si>
+    <t>清除原神公告红点</t>
+  </si>
+  <si>
+    <t>清除自己的原神公告红点</t>
+  </si>
+  <si>
     <t>查询服务 | 可加 [查询]前缀</t>
   </si>
   <si>
@@ -341,6 +353,36 @@
   </si>
   <si>
     <t>随机抽一签,当天内签文固定</t>
+  </si>
+  <si>
+    <t>原神公告</t>
+  </si>
+  <si>
+    <t>获取原神公告</t>
+  </si>
+  <si>
+    <t>原神公告#3898</t>
+  </si>
+  <si>
+    <t>订阅原神公告</t>
+  </si>
+  <si>
+    <t>在本群订阅原神公告</t>
+  </si>
+  <si>
+    <t>取消订阅原神公告</t>
+  </si>
+  <si>
+    <t>在本群取消订阅原神公告</t>
+  </si>
+  <si>
+    <t>版本深渊</t>
+  </si>
+  <si>
+    <t>获取当前版本深渊阵容</t>
+  </si>
+  <si>
+    <t>版本深渊3.4</t>
   </si>
   <si>
     <t>WIKI | 获取游戏信息</t>
@@ -526,43 +568,43 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="185" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="186" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="m/d"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="188" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="189" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="190" formatCode="yy/m/d"/>
+    <numFmt numFmtId="191" formatCode="mmmmm"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="192" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="194" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="195" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="198" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="199" formatCode="mmmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="181" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="182" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="184" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="185" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="186" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="187" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="188" formatCode="m/d"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="190" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="193" formatCode="#\ ??"/>
-    <numFmt numFmtId="194" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="196" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="197" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="198" formatCode="mmmmm"/>
-    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="200" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="201" formatCode="yy/m/d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="200" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="201" formatCode="#\ ??"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -607,70 +649,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -691,8 +670,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -707,9 +694,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,8 +717,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,6 +731,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -751,187 +793,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,72 +991,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,8 +1014,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,148 +1089,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1530,7 +1572,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1756,21 +1798,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="7:7">
-      <c r="G11" s="5"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
@@ -1782,35 +1840,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="7:7">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
@@ -1824,13 +1868,13 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
@@ -1844,10 +1888,10 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>47</v>
@@ -1864,13 +1908,13 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>11</v>
@@ -1910,7 +1954,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>11</v>
@@ -1924,28 +1968,45 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="5" t="s">
         <v>60</v>
       </c>
@@ -1965,35 +2026,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>12</v>
@@ -2007,13 +2051,13 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>12</v>
@@ -2027,13 +2071,13 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
@@ -2047,13 +2091,13 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>12</v>
@@ -2067,10 +2111,10 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>78</v>
@@ -2087,13 +2131,13 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>12</v>
@@ -2107,37 +2151,54 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="D31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
@@ -2148,35 +2209,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="5" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>12</v>
@@ -2190,13 +2234,13 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -2210,10 +2254,10 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>98</v>
@@ -2230,13 +2274,13 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>12</v>
@@ -2256,7 +2300,7 @@
         <v>103</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>12</v>
@@ -2270,13 +2314,13 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D39" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>12</v>
@@ -2290,14 +2334,14 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="E40" s="5" t="s">
         <v>12</v>
       </c>
@@ -2309,25 +2353,34 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="C41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>12</v>
@@ -2367,7 +2420,7 @@
         <v>117</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>12</v>
@@ -2381,13 +2434,13 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
@@ -2401,53 +2454,44 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>12</v>
@@ -2461,13 +2505,13 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
@@ -2476,44 +2520,58 @@
         <v>12</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4" t="s">
+      <c r="E51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>12</v>
@@ -2533,7 +2591,7 @@
         <v>140</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>12</v>
@@ -2547,13 +2605,13 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>12</v>
@@ -2562,18 +2620,18 @@
         <v>12</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>12</v>
@@ -2582,55 +2640,41 @@
         <v>12</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="B58" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>151</v>
@@ -2642,19 +2686,19 @@
         <v>12</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="E59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2662,18 +2706,35 @@
         <v>12</v>
       </c>
       <c r="G59" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4" t="s">
-        <v>154</v>
-      </c>
+    <row r="61" spans="2:7">
       <c r="B61" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>157</v>
@@ -2688,56 +2749,55 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="4"/>
+    <row r="62" spans="2:7">
       <c r="B62" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="E63" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>12</v>
@@ -2746,18 +2806,18 @@
         <v>12</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>12</v>
@@ -2766,61 +2826,165 @@
         <v>12</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="A67" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="B69" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="B70" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="197">
   <si>
     <t>模块</t>
   </si>
@@ -160,6 +160,15 @@
     <t>收集100740568</t>
   </si>
   <si>
+    <t>探索/ts</t>
+  </si>
+  <si>
+    <t>探索百分比,后可跟UID</t>
+  </si>
+  <si>
+    <t>探索100740568</t>
+  </si>
+  <si>
     <t>每日/mr</t>
   </si>
   <si>
@@ -205,6 +214,12 @@
     <t>召唤100740568</t>
   </si>
   <si>
+    <t>原神注册时间</t>
+  </si>
+  <si>
+    <t>获取自己的原神注册时间</t>
+  </si>
+  <si>
     <t>面板服务 | 数据源由Enka提供</t>
   </si>
   <si>
@@ -385,6 +400,24 @@
     <t>版本深渊3.4</t>
   </si>
   <si>
+    <t>查成就</t>
+  </si>
+  <si>
+    <t>查询这个成就的攻略</t>
+  </si>
+  <si>
+    <t>查成就捉猫记</t>
+  </si>
+  <si>
+    <t>查委托</t>
+  </si>
+  <si>
+    <t>查询当天的委托有没有成就</t>
+  </si>
+  <si>
+    <t>查委托这本小说</t>
+  </si>
+  <si>
     <t>WIKI | 获取游戏信息</t>
   </si>
   <si>
@@ -518,6 +551,18 @@
   </si>
   <si>
     <t>重启你的Bot</t>
+  </si>
+  <si>
+    <t>刷新ck</t>
+  </si>
+  <si>
+    <t>通过sk重新获取ck</t>
+  </si>
+  <si>
+    <t>刷新全部ck</t>
+  </si>
+  <si>
+    <t>刷新绑定的全部ck</t>
   </si>
   <si>
     <t>杂图 | 可能会用得上</t>
@@ -567,44 +612,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="yy/m/d"/>
+    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="184" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="185" formatCode="#\ ??"/>
+    <numFmt numFmtId="186" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="187" formatCode="mmmmm"/>
+    <numFmt numFmtId="188" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="190" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="191" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="192" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="193" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="194" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="195" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="196" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="m/d"/>
+    <numFmt numFmtId="198" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="185" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="186" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="m/d"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="188" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="189" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="190" formatCode="yy/m/d"/>
-    <numFmt numFmtId="191" formatCode="mmmmm"/>
+    <numFmt numFmtId="200" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="201" formatCode="#\ ?/?"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="194" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="195" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="197" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="198" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="199" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="200" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="201" formatCode="#\ ??"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -642,9 +687,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,41 +723,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,8 +747,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,46 +786,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,6 +808,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -793,7 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,7 +862,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,13 +970,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,139 +1006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,23 +1035,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,7 +1045,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,11 +1080,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,17 +1106,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,148 +1134,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1572,7 +1617,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1934,7 +1979,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>11</v>
@@ -1948,13 +1993,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>11</v>
@@ -1968,13 +2013,13 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>11</v>
@@ -1988,13 +2033,13 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>11</v>
@@ -2017,7 +2062,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>12</v>
@@ -2026,21 +2071,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
+    <row r="23" spans="2:7">
+      <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="C23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>12</v>
@@ -2050,34 +2112,25 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
@@ -2091,13 +2144,13 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>12</v>
@@ -2111,13 +2164,13 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>12</v>
@@ -2131,13 +2184,13 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>12</v>
@@ -2151,13 +2204,13 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>12</v>
@@ -2209,15 +2262,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="4" t="s">
+    <row r="33" spans="2:7">
+      <c r="B33" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="C33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>92</v>
@@ -2232,35 +2302,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="5" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>12</v>
@@ -2274,13 +2327,13 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>12</v>
@@ -2294,13 +2347,13 @@
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>12</v>
@@ -2320,7 +2373,7 @@
         <v>105</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>12</v>
@@ -2334,13 +2387,13 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>12</v>
@@ -2380,7 +2433,7 @@
         <v>112</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>12</v>
@@ -2394,13 +2447,13 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>12</v>
@@ -2440,7 +2493,7 @@
         <v>119</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
@@ -2454,14 +2507,14 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="E46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2473,25 +2526,34 @@
       </c>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="C47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
       <c r="B48" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>12</v>
@@ -2505,13 +2567,13 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
@@ -2525,13 +2587,13 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>12</v>
@@ -2544,34 +2606,25 @@
       </c>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>12</v>
@@ -2585,13 +2638,13 @@
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>12</v>
@@ -2605,13 +2658,13 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>12</v>
@@ -2625,14 +2678,14 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="E55" s="5" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2693,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -2663,21 +2716,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4" t="s">
+    <row r="57" spans="2:7">
+      <c r="B57" s="5" t="s">
         <v>150</v>
       </c>
+      <c r="C57" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>12</v>
@@ -2691,13 +2758,13 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>12</v>
@@ -2706,18 +2773,18 @@
         <v>12</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>12</v>
@@ -2726,78 +2793,64 @@
         <v>12</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="B62" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>12</v>
@@ -2811,13 +2864,13 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>12</v>
@@ -2826,42 +2879,58 @@
         <v>12</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="4" t="s">
-        <v>168</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>12</v>
@@ -2870,18 +2939,18 @@
         <v>12</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>12</v>
@@ -2890,24 +2959,24 @@
         <v>12</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>12</v>
@@ -2915,76 +2984,180 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="A73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="B75" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="212">
   <si>
     <t>模块</t>
   </si>
@@ -130,6 +130,12 @@
     <t>清除自己的原神公告红点</t>
   </si>
   <si>
+    <t>留影叙佳期</t>
+  </si>
+  <si>
+    <t>获取当天的留影叙佳期画片</t>
+  </si>
+  <si>
     <t>查询服务 | 可加 [查询]前缀</t>
   </si>
   <si>
@@ -220,6 +226,15 @@
     <t>获取自己的原神注册时间</t>
   </si>
   <si>
+    <t>我的卡组</t>
+  </si>
+  <si>
+    <t>后可以跟数字指定套牌</t>
+  </si>
+  <si>
+    <t>我的卡组2</t>
+  </si>
+  <si>
     <t>面板服务 | 数据源由Enka提供</t>
   </si>
   <si>
@@ -421,43 +436,52 @@
     <t>WIKI | 获取游戏信息</t>
   </si>
   <si>
-    <t>武器</t>
+    <t>武器介绍</t>
   </si>
   <si>
     <t>武器信息，可后跟数字</t>
   </si>
   <si>
-    <t>武器天空、武器天空90</t>
-  </si>
-  <si>
-    <t>角色</t>
+    <t>武器介绍天空、武器天空90</t>
+  </si>
+  <si>
+    <t>角色介绍</t>
   </si>
   <si>
     <t>角色信息，可后跟数字</t>
   </si>
   <si>
-    <t>角色七七90、角色真珠</t>
-  </si>
-  <si>
-    <t>命座、天赋</t>
+    <t>角色介绍七七90、角色介绍真珠</t>
+  </si>
+  <si>
+    <t>角色命座</t>
   </si>
   <si>
     <t>角色命座和技能</t>
   </si>
   <si>
-    <t>命座6可莉、天赋4北斗</t>
-  </si>
-  <si>
-    <t>圣遗物</t>
+    <t>角色命座6可莉</t>
+  </si>
+  <si>
+    <t>角色天赋</t>
+  </si>
+  <si>
+    <t>角色技能介绍</t>
+  </si>
+  <si>
+    <t>角色天赋4北斗</t>
+  </si>
+  <si>
+    <t>圣遗物介绍</t>
   </si>
   <si>
     <t>查询圣遗物</t>
   </si>
   <si>
-    <t>圣遗物冰封</t>
-  </si>
-  <si>
-    <t>食物、原魔</t>
+    <t>圣遗物介绍冰封</t>
+  </si>
+  <si>
+    <t>食物介绍、原魔介绍</t>
   </si>
   <si>
     <t>查询食物和怪物信息</t>
@@ -466,22 +490,13 @@
     <t>食物鸡、原魔公子</t>
   </si>
   <si>
-    <t>语音</t>
-  </si>
-  <si>
-    <t>查询角色语音</t>
-  </si>
-  <si>
-    <t>语音可莉357</t>
-  </si>
-  <si>
-    <t>原牌</t>
-  </si>
-  <si>
-    <t>查询原牌</t>
-  </si>
-  <si>
-    <t>原牌神里、原牌运筹帷幄</t>
+    <t>武器材料、角色材料</t>
+  </si>
+  <si>
+    <t>查询材料消耗</t>
+  </si>
+  <si>
+    <t>角色材料可莉</t>
   </si>
   <si>
     <t>切换地图</t>
@@ -490,13 +505,13 @@
     <t>切换地图至其他区域</t>
   </si>
   <si>
-    <t>xx在哪</t>
+    <t>哪里有xx</t>
   </si>
   <si>
     <t>查找地图资源点</t>
   </si>
   <si>
-    <t>甜甜花在哪</t>
+    <t>哪里有甜甜花</t>
   </si>
   <si>
     <t>数据模块 | 有关插件的一些数据</t>
@@ -605,6 +620,36 @@
   </si>
   <si>
     <t>从虚空数据库获取当期深渊完成率</t>
+  </si>
+  <si>
+    <t>GsCore | 核心组件管理</t>
+  </si>
+  <si>
+    <t>启动core</t>
+  </si>
+  <si>
+    <t>能看到这想必不需要这个命令</t>
+  </si>
+  <si>
+    <t>连接core</t>
+  </si>
+  <si>
+    <t>有时候意外失联</t>
+  </si>
+  <si>
+    <t>gs关闭core</t>
+  </si>
+  <si>
+    <t>有时候只想单独关闭core</t>
+  </si>
+  <si>
+    <t>gs全部更新</t>
+  </si>
+  <si>
+    <t>更新core和v4插件</t>
+  </si>
+  <si>
+    <t>gs一键安装</t>
   </si>
 </sst>
 </file>
@@ -612,44 +657,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
     <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="yy/m/d"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="184" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="185" formatCode="#\ ??"/>
-    <numFmt numFmtId="186" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="187" formatCode="mmmmm"/>
-    <numFmt numFmtId="188" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="190" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="191" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="183" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="192" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="193" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="194" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="195" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="187" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="190" formatCode="yy/m/d"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="192" formatCode="m/d"/>
+    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="194" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="mmmmm"/>
+    <numFmt numFmtId="197" formatCode="#\ ??"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="198" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="200" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="201" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="196" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="197" formatCode="m/d"/>
-    <numFmt numFmtId="198" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="200" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="201" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -680,13 +725,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -694,9 +732,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,11 +761,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,9 +800,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,15 +839,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,35 +863,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,7 +889,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +979,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,157 +1057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,6 +1110,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1076,6 +1130,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,17 +1160,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1120,162 +1174,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,7 +1662,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1885,41 +1930,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="7:7">
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>11</v>
@@ -1933,13 +1979,13 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>11</v>
@@ -1953,13 +1999,13 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>11</v>
@@ -1973,13 +2019,13 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>11</v>
@@ -1993,13 +2039,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>11</v>
@@ -2059,7 +2105,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>11</v>
@@ -2073,16 +2119,16 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>12</v>
@@ -2093,16 +2139,16 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>12</v>
@@ -2112,28 +2158,37 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="C25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
@@ -2143,34 +2198,25 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>12</v>
@@ -2184,13 +2230,13 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>12</v>
@@ -2204,13 +2250,13 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>12</v>
@@ -2224,13 +2270,13 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>12</v>
@@ -2244,13 +2290,13 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>12</v>
@@ -2302,15 +2348,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="4" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="C35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>97</v>
@@ -2325,35 +2388,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="5" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>12</v>
@@ -2367,13 +2413,13 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>12</v>
@@ -2387,13 +2433,13 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>12</v>
@@ -2413,7 +2459,7 @@
         <v>110</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>12</v>
@@ -2427,13 +2473,13 @@
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>12</v>
@@ -2473,7 +2519,7 @@
         <v>117</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>12</v>
@@ -2487,13 +2533,13 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
@@ -2533,7 +2579,7 @@
         <v>124</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>12</v>
@@ -2547,13 +2593,13 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>12</v>
@@ -2573,7 +2619,7 @@
         <v>129</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
@@ -2587,44 +2633,53 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>134</v>
       </c>
+      <c r="D51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>12</v>
@@ -2637,34 +2692,25 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>12</v>
@@ -2678,13 +2724,13 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>12</v>
@@ -2698,13 +2744,13 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>12</v>
@@ -2718,13 +2764,13 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>12</v>
@@ -2738,13 +2784,13 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>12</v>
@@ -2758,14 +2804,14 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="E59" s="5" t="s">
         <v>12</v>
       </c>
@@ -2773,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -2796,21 +2842,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="4" t="s">
+    <row r="61" spans="2:7">
+      <c r="B61" s="5" t="s">
         <v>161</v>
       </c>
+      <c r="C61" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
       <c r="B62" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>12</v>
@@ -2822,36 +2882,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
+    <row r="63" spans="2:2">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="B64" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="E64" s="5" t="s">
         <v>12</v>
       </c>
@@ -2859,18 +2905,18 @@
         <v>12</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>12</v>
@@ -2884,16 +2930,16 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E66" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>12</v>
@@ -2904,36 +2950,36 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="E67" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="E68" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>12</v>
@@ -2953,10 +2999,10 @@
         <v>177</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>11</v>
@@ -2970,83 +3016,82 @@
         <v>180</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="4" t="s">
-        <v>183</v>
-      </c>
+    <row r="72" spans="2:7">
+      <c r="B72" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
       <c r="B73" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
       <c r="B75" s="5" t="s">
         <v>189</v>
       </c>
@@ -3054,7 +3099,7 @@
         <v>190</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>12</v>
@@ -3066,15 +3111,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="1:7">
+      <c r="A76" s="4"/>
       <c r="B76" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>12</v>
@@ -3088,13 +3134,13 @@
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>12</v>
@@ -3108,14 +3154,14 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="E78" s="5" t="s">
         <v>12</v>
       </c>
@@ -3126,24 +3172,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+    <row r="79" spans="2:7">
+      <c r="B79" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-    </row>
-    <row r="81" spans="2:7">
+      <c r="B80" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3151,13 +3221,108 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+    <row r="82" spans="1:7">
+      <c r="A82" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -3169,7 +3334,7 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
       <cellprotection/>
       <appEtDbRelations/>
     </woSheetProps>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="222">
   <si>
     <t>模块</t>
   </si>
@@ -283,6 +283,15 @@
     <t>查询莱依拉带月光换公子</t>
   </si>
   <si>
+    <t>查询xx换xx圣遗物</t>
+  </si>
+  <si>
+    <t>更换角色圣遗物</t>
+  </si>
+  <si>
+    <t>查询白术换公子圣遗物</t>
+  </si>
+  <si>
     <t>查询xx成长曲线</t>
   </si>
   <si>
@@ -313,6 +322,15 @@
     <t>查询所有已缓存角色的毕业度</t>
   </si>
   <si>
+    <t>原图</t>
+  </si>
+  <si>
+    <t>开启随机图API之后可以查看原图</t>
+  </si>
+  <si>
+    <t>回复命令，原图</t>
+  </si>
+  <si>
     <t>游戏建议 | 获取一些没用的建议</t>
   </si>
   <si>
@@ -478,7 +496,7 @@
     <t>查询圣遗物</t>
   </si>
   <si>
-    <t>圣遗物介绍冰封</t>
+    <t>圣遗物介绍乐园</t>
   </si>
   <si>
     <t>食物介绍、原魔介绍</t>
@@ -580,6 +598,12 @@
     <t>刷新绑定的全部ck</t>
   </si>
   <si>
+    <t>强制推送体力提醒</t>
+  </si>
+  <si>
+    <t>强制推送全部体力信息</t>
+  </si>
+  <si>
     <t>杂图 | 可能会用得上</t>
   </si>
   <si>
@@ -650,6 +674,12 @@
   </si>
   <si>
     <t>gs一键安装</t>
+  </si>
+  <si>
+    <t>重置core配置</t>
+  </si>
+  <si>
+    <t>如果机器人只会响应你的命令</t>
   </si>
 </sst>
 </file>
@@ -657,44 +687,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="38">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="185" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="183" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="186" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="mmmmm"/>
+    <numFmt numFmtId="190" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="191" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="192" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="194" formatCode="m/d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="190" formatCode="yy/m/d"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="m/d"/>
-    <numFmt numFmtId="193" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="194" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="196" formatCode="mmmmm"/>
-    <numFmt numFmtId="197" formatCode="#\ ??"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="198" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="200" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="195" formatCode="yy/m/d"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="196" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="197" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="198" formatCode="#\ ??"/>
+    <numFmt numFmtId="199" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="201" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="200" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="201" formatCode="[$-804]aaa"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -738,32 +768,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,16 +792,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,22 +801,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +815,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,23 +860,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,7 +919,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,31 +1039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,115 +1057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1081,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,15 +1116,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1106,41 +1127,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,6 +1146,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1174,147 +1171,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1662,7 +1692,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -2336,7 +2366,7 @@
         <v>93</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>12</v>
@@ -2350,13 +2380,13 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>12</v>
@@ -2376,7 +2406,7 @@
         <v>98</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>12</v>
@@ -2388,18 +2418,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="4" t="s">
-        <v>99</v>
-      </c>
+    <row r="37" spans="2:7">
+      <c r="B37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>12</v>
@@ -2411,27 +2458,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="5" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
         <v>106</v>
       </c>
@@ -2479,7 +2509,7 @@
         <v>113</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>12</v>
@@ -2493,13 +2523,13 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>12</v>
@@ -2513,10 +2543,10 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>118</v>
@@ -2533,13 +2563,13 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
@@ -2553,13 +2583,13 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>12</v>
@@ -2573,10 +2603,10 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>125</v>
@@ -2593,13 +2623,13 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>12</v>
@@ -2613,13 +2643,13 @@
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
@@ -2633,10 +2663,10 @@
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>132</v>
@@ -2653,13 +2683,13 @@
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>12</v>
@@ -2692,25 +2722,34 @@
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="C53" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>12</v>
@@ -2723,26 +2762,17 @@
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
       <c r="B56" s="5" t="s">
         <v>146</v>
       </c>
@@ -2850,7 +2880,7 @@
         <v>162</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>12</v>
@@ -2859,18 +2889,18 @@
         <v>12</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>12</v>
@@ -2882,21 +2912,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="4" t="s">
-        <v>166</v>
-      </c>
+    <row r="63" spans="2:7">
+      <c r="B63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
       <c r="B64" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>12</v>
@@ -2908,35 +2952,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
+    <row r="65" spans="2:2">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="B66" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>12</v>
@@ -2945,18 +2975,18 @@
         <v>12</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>12</v>
@@ -2970,16 +3000,16 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>12</v>
@@ -2990,36 +3020,36 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>12</v>
@@ -3030,19 +3060,19 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>11</v>
@@ -3050,117 +3080,116 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="4" t="s">
-        <v>188</v>
-      </c>
+    <row r="74" spans="2:7">
+      <c r="B74" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
       <c r="B75" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
       <c r="B76" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="B78" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>12</v>
@@ -3172,15 +3201,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="1:7">
+      <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>12</v>
@@ -3194,13 +3224,13 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>12</v>
@@ -3212,27 +3242,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="4" t="s">
-        <v>202</v>
-      </c>
+    <row r="81" spans="2:7">
+      <c r="B81" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>12</v>
@@ -3241,18 +3279,18 @@
         <v>12</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>12</v>
@@ -3261,38 +3299,30 @@
         <v>12</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="B85" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>12</v>
@@ -3306,13 +3336,13 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>12</v>
@@ -3321,6 +3351,86 @@
         <v>12</v>
       </c>
       <c r="G86" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/GenshinUID/tools/help_data/GenshinUID Help.xlsx
+++ b/GenshinUID/tools/help_data/GenshinUID Help.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WinOS\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{173A5156-AA47-491D-A09F-D8255670B905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="780" windowWidth="23385" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28245" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="293">
   <si>
     <t>模块</t>
   </si>
@@ -307,7 +302,7 @@
     <t>查询不存在的角色</t>
   </si>
   <si>
-    <t>查询莱依拉带月光换公子</t>
+    <t>查询莱依拉带护摩换公子圣遗物</t>
   </si>
   <si>
     <t>查询xx换xx圣遗物</t>
@@ -358,6 +353,42 @@
     <t>回复命令，原图</t>
   </si>
   <si>
+    <t>圣遗物仓库</t>
+  </si>
+  <si>
+    <t>查看自己已缓存的圣遗物列表</t>
+  </si>
+  <si>
+    <t>排名服务 | 数据源由AKACV提供</t>
+  </si>
+  <si>
+    <t>gs开启排名系统</t>
+  </si>
+  <si>
+    <t>开启排名系统之后可正常使用</t>
+  </si>
+  <si>
+    <t>排名列表</t>
+  </si>
+  <si>
+    <t>查看自己的排名图片</t>
+  </si>
+  <si>
+    <t>排名统计</t>
+  </si>
+  <si>
+    <t>查看自己的排名文字</t>
+  </si>
+  <si>
+    <t>角色排名</t>
+  </si>
+  <si>
+    <t>查看该角色的全球排名</t>
+  </si>
+  <si>
+    <t>角色排名雷神</t>
+  </si>
+  <si>
     <t>游戏建议 | 获取一些没用的建议</t>
   </si>
   <si>
@@ -478,6 +509,15 @@
     <t>查委托这本小说</t>
   </si>
   <si>
+    <t>今日素材</t>
+  </si>
+  <si>
+    <t>查看今天的副本掉落素材</t>
+  </si>
+  <si>
+    <t>今日材料</t>
+  </si>
+  <si>
     <t>WIKI | 获取游戏信息</t>
   </si>
   <si>
@@ -725,13 +765,182 @@
   </si>
   <si>
     <t>如果机器人只会响应你的命令</t>
+  </si>
+  <si>
+    <t>基础服务 | 需要先绑定uid</t>
+  </si>
+  <si>
+    <t>sr绑定uid</t>
+  </si>
+  <si>
+    <t>绑定你的星铁UID</t>
+  </si>
+  <si>
+    <t>sr绑定uid123456</t>
+  </si>
+  <si>
+    <t>sr删除uid</t>
+  </si>
+  <si>
+    <t>删除你的星铁UID</t>
+  </si>
+  <si>
+    <t>sr删除uid123456</t>
+  </si>
+  <si>
+    <t>sr切换uid</t>
+  </si>
+  <si>
+    <t>切换你的星铁UID</t>
+  </si>
+  <si>
+    <t>sr切换uid123456</t>
+  </si>
+  <si>
+    <t>查询服务 | 查询一些基本信息</t>
+  </si>
+  <si>
+    <t>sruid</t>
+  </si>
+  <si>
+    <t>sruid100740568</t>
+  </si>
+  <si>
+    <t>sr深渊</t>
+  </si>
+  <si>
+    <t>查询星铁深渊信息</t>
+  </si>
+  <si>
+    <t>sr深渊100740568</t>
+  </si>
+  <si>
+    <t>srmr</t>
+  </si>
+  <si>
+    <t>查询自己的体力派遣</t>
+  </si>
+  <si>
+    <t>sr每日</t>
+  </si>
+  <si>
+    <t>sr札记</t>
+  </si>
+  <si>
+    <t>查询自己的每月收入</t>
+  </si>
+  <si>
+    <t>srzj</t>
+  </si>
+  <si>
+    <t>sr签到</t>
+  </si>
+  <si>
+    <t>米游社签到</t>
+  </si>
+  <si>
+    <t>sr抽卡记录</t>
+  </si>
+  <si>
+    <t>查询自己的抽卡记录</t>
+  </si>
+  <si>
+    <t>sr每月统计</t>
+  </si>
+  <si>
+    <t>srzj的文字版</t>
+  </si>
+  <si>
+    <t>sr当前状态</t>
+  </si>
+  <si>
+    <t>srmr的文字版</t>
+  </si>
+  <si>
+    <t>面板服务 | 数据源由Mihomo提供</t>
+  </si>
+  <si>
+    <t>sr强制刷新</t>
+  </si>
+  <si>
+    <t>sr查询xx</t>
+  </si>
+  <si>
+    <t>查询游戏内面板数据</t>
+  </si>
+  <si>
+    <t>sr查询希儿</t>
+  </si>
+  <si>
+    <t>私人服务 | 一些仅供私聊调用的服务</t>
+  </si>
+  <si>
+    <t>sr导入抽卡链接</t>
+  </si>
+  <si>
+    <t>后跟抽卡记录连接以导入</t>
+  </si>
+  <si>
+    <t>管理员服务 | 一些仅供管理员调用的服务</t>
+  </si>
+  <si>
+    <t>sr下载全部资源</t>
+  </si>
+  <si>
+    <t>下载一些机器人必须的资源</t>
+  </si>
+  <si>
+    <t>sr强制推送体力提醒</t>
+  </si>
+  <si>
+    <t>强制推送一次体力提醒</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="38">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="187" formatCode="m/d"/>
+    <numFmt numFmtId="188" formatCode="yy/m/d"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="190" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="192" formatCode="mmmmm"/>
+    <numFmt numFmtId="193" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="196" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="197" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="198" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="199" formatCode="#\ ??"/>
+    <numFmt numFmtId="200" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="201" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,13 +968,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,8 +1125,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -787,9 +1320,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -813,17 +1588,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1081,28 +1900,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="33.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="33.1916666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.8416666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.8583333333333" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="44.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -1169,7 +1988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +2008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +2028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
@@ -1230,7 +2049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>20</v>
@@ -1251,7 +2070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>22</v>
@@ -1272,7 +2091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>25</v>
@@ -1293,7 +2112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
@@ -1314,7 +2133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>29</v>
@@ -1335,7 +2154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1344,7 +2163,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1367,7 +2186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>35</v>
@@ -1388,7 +2207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>38</v>
@@ -1409,7 +2228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>41</v>
@@ -1430,7 +2249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>44</v>
@@ -1451,7 +2270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1460,7 +2279,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -1483,7 +2302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
@@ -1503,7 +2322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
@@ -1523,7 +2342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
@@ -1543,7 +2362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="5" t="s">
         <v>60</v>
       </c>
@@ -1563,7 +2382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7">
       <c r="B24" s="5" t="s">
         <v>63</v>
       </c>
@@ -1583,7 +2402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="B25" s="5" t="s">
         <v>65</v>
       </c>
@@ -1603,7 +2422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" s="5" t="s">
         <v>67</v>
       </c>
@@ -1623,7 +2442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
@@ -1643,7 +2462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" s="5" t="s">
         <v>72</v>
       </c>
@@ -1663,7 +2482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="B29" s="5" t="s">
         <v>75</v>
       </c>
@@ -1683,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="B30" s="5" t="s">
         <v>77</v>
       </c>
@@ -1703,7 +2522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1711,7 +2530,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
         <v>80</v>
       </c>
@@ -1734,7 +2553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="5" t="s">
         <v>84</v>
       </c>
@@ -1754,7 +2573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="5" t="s">
         <v>87</v>
       </c>
@@ -1774,7 +2593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
         <v>90</v>
       </c>
@@ -1794,7 +2613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7">
       <c r="B36" s="5" t="s">
         <v>93</v>
       </c>
@@ -1814,7 +2633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7">
       <c r="B37" s="5" t="s">
         <v>96</v>
       </c>
@@ -1834,7 +2653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7">
       <c r="B38" s="5" t="s">
         <v>99</v>
       </c>
@@ -1854,7 +2673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
         <v>102</v>
       </c>
@@ -1874,7 +2693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7">
       <c r="B40" s="5" t="s">
         <v>104</v>
       </c>
@@ -1894,7 +2713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7">
       <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
@@ -1914,7 +2733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7">
       <c r="B42" s="5" t="s">
         <v>109</v>
       </c>
@@ -1934,310 +2753,1918 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
+    <row r="43" spans="2:7">
+      <c r="B43" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="5" t="s">
+      <c r="D46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B48" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B52" s="5" t="s">
+      <c r="E52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="E53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B54" s="5" t="s">
+      <c r="D54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B55" s="5" t="s">
+      <c r="E55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B57" s="5" t="s">
+      <c r="D57" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C60" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="34.6833333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.8416666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.8583333333333" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="44.75" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:7">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:7">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:7">
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:7">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:7">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:7">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:7">
+      <c r="A38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:7">
+      <c r="A39" s="3"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:7">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:7">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:7">
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:7">
+      <c r="A43" s="3"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:7">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:7">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:7">
+      <c r="A46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:7">
+      <c r="A47" s="3"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:7">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:7">
+      <c r="A49" s="3"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:7">
+      <c r="A50" s="3"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:7">
+      <c r="A51" s="3"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:7">
+      <c r="A52" s="3"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:7">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:7">
+      <c r="A54" s="3"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:7">
+      <c r="A55" s="3"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:7">
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:7">
+      <c r="A57" s="3"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:7">
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:7">
+      <c r="A59" s="3"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2245,727 +4672,255 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B62" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B64" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B65" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B66" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B68" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B69" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B70" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" s="2" customFormat="1" spans="1:7">
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:7">
+      <c r="A61" s="3"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="1:2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" s="2" customFormat="1" spans="1:7">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:7">
+      <c r="A64" s="3"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="1:7">
+      <c r="A65" s="3"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="1:7">
+      <c r="A66" s="3"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" s="2" customFormat="1" spans="1:7">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" s="2" customFormat="1" spans="1:7">
+      <c r="A68" s="3"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="1:7">
+      <c r="A69" s="3"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="1:7">
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" s="2" customFormat="1" spans="1:7">
+      <c r="A71" s="3"/>
       <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B73" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B74" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B75" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B76" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B77" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B78" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B79" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B80" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B81" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B82" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B86" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B87" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B88" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B89" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B92" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B93" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B94" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B95" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B96" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:7">
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="1:7">
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:1">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:7">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:7">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:7">
+      <c r="A77" s="3"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:7">
+      <c r="A78" s="3"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="1:7">
+      <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="1:7">
+      <c r="A80" s="3"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="1:7">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="1:7">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="1:7">
+      <c r="A83" s="3"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:7">
+      <c r="A84" s="3"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:7">
+      <c r="A85" s="3"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="1:7">
+      <c r="A86" s="3"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="1:7">
+      <c r="A87" s="3"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -2983,8 +4938,16 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2993,7 +4956,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
